--- a/demo_excel/rugs.xlsx
+++ b/demo_excel/rugs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\dsqt\tham-vps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\dsqt\tham-vps\demo_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t>https://sf-static.upanhlaylink.com/img/image_20251224899b7011f28c4e9e8a36ab7e814e719f.jpg</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>Cổ điển</t>
+  </si>
+  <si>
+    <t>Bohemian</t>
+  </si>
+  <si>
+    <t>Tối giản</t>
+  </si>
+  <si>
+    <t>Bắc Âu</t>
+  </si>
+  <si>
+    <t>Vintage</t>
   </si>
 </sst>
 </file>
@@ -467,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -476,11 +494,11 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="86.77734375" customWidth="1"/>
+    <col min="3" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="86.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,10 +509,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -504,11 +525,14 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -518,11 +542,14 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -532,11 +559,14 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -546,11 +576,14 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -560,11 +593,14 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -574,11 +610,14 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -588,19 +627,22 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/demo_excel/rugs.xlsx
+++ b/demo_excel/rugs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -112,6 +112,21 @@
   </si>
   <si>
     <t>Vintage</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>phong-khach</t>
+  </si>
+  <si>
+    <t>phong-ngu</t>
+  </si>
+  <si>
+    <t>phong-bep</t>
+  </si>
+  <si>
+    <t>phong-sinh-hoat-chung</t>
   </si>
 </sst>
 </file>
@@ -485,20 +500,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="86.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="86.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,13 +524,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -526,13 +544,16 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -543,13 +564,16 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -560,13 +584,16 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -577,13 +604,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -594,13 +624,16 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -611,13 +644,16 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -628,21 +664,24 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
